--- a/CMP202Project/Timings/final/Master 2.xlsx
+++ b/CMP202Project/Timings/final/Master 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor Bretherton\Documents\Jake\Uni Year 2\CMP202\CMP202Project\CMP202Project\Timings\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Uni19-20\Cmp 202 Algorithms 2\Project\CMP202Project\CMP202Project\Timings\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3454138F-8373-4B17-8101-137AC116A9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8D72C-7B81-4103-8625-A8E78C569633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CMP202Project/Timings/final/Master 2.xlsx
+++ b/CMP202Project/Timings/final/Master 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Uni19-20\Cmp 202 Algorithms 2\Project\CMP202Project\CMP202Project\Timings\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8D72C-7B81-4103-8625-A8E78C569633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4BFA7-03EB-41B7-B0C3-9AC5B6A68021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Generation end character work only</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Hash channel write</t>
+  </si>
+  <si>
+    <t>Generation</t>
   </si>
 </sst>
 </file>
@@ -1905,8 +1908,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Chart Title</a:t>
+              <a:t>Segment</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> timings comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2013,9 +2021,12 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Average time per character generated</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2069,7 +2080,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-0522-4EDF-8A4B-8CC4C9407616}"/>
+              <c16:uniqueId val="{00000000-F352-4DF8-B128-AD2689F5D879}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2081,8 +2092,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="269"/>
-        <c:overlap val="100"/>
+        <c:gapWidth val="110"/>
         <c:axId val="280329712"/>
         <c:axId val="435919248"/>
       </c:barChart>
@@ -2302,7 +2312,578 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Task combined timings</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Main Work</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$63:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Generation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hashing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Comparison</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.439999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0F5-4B8E-A115-B88ABF9629DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Avg work per generation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$63:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Generation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hashing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Comparison</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$63:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85578947368421066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0F5-4B8E-A115-B88ABF9629DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Channel reading</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$63:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Generation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hashing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Comparison</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$63:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>70.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.559999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B0F5-4B8E-A115-B88ABF9629DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Channel writing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$63:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Generation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hashing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Comparison</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$63:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>106.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B0F5-4B8E-A115-B88ABF9629DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="574426104"/>
+        <c:axId val="574426424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="574426104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574426424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574426424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (nano seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574426104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2426,6 +3007,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
@@ -3428,6 +4049,506 @@
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4045,15 +5166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4078,6 +5199,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C696342-8C28-4A04-8618-3C354FC7DD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4095,57 +5252,6 @@
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15708ABF-C869-448B-97D6-A5D54D279D6B}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="463825" y="2272750"/>
-          <a:ext cx="881270" cy="377686"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="600"/>
-            <a:t>*root</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="600" baseline="0"/>
-            <a:t> word time calculated per word</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="600"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.10145</cdr:x>
-      <cdr:y>0.81667</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.2942</cdr:x>
-      <cdr:y>0.95238</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15708ABF-C869-448B-97D6-A5D54D279D6B}"/>
@@ -4344,7 +5450,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Aspect">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4352,34 +5458,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="323232"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="F07F09"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="9F2936"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="1B587C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="4E8542"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="604878"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="C19859"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -5748,10 +6854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A14:C59"/>
+  <dimension ref="A14:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5871,7 +6977,7 @@
         <v>106.97999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -5879,7 +6985,7 @@
         <v>73.559999999999988</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -5887,25 +6993,76 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>8.9400000000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>70.56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <f>B56+B57+B58</f>
         <v>197.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>2.6200000000000006</v>
+      </c>
+      <c r="C63">
+        <v>0.85578947368421066</v>
+      </c>
+      <c r="E63">
+        <v>106.97999999999999</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:F64" si="0">B63+C63+D63+E63</f>
+        <v>110.45578947368421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>8.9400000000000013</v>
+      </c>
+      <c r="D64">
+        <v>70.56</v>
+      </c>
+      <c r="E64">
+        <v>118</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>18.439999999999998</v>
+      </c>
+      <c r="D65">
+        <v>73.559999999999988</v>
+      </c>
+      <c r="F65">
+        <f>B65+C65+D65+E65</f>
+        <v>91.999999999999986</v>
       </c>
     </row>
   </sheetData>

--- a/CMP202Project/Timings/final/Master 2.xlsx
+++ b/CMP202Project/Timings/final/Master 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Uni19-20\Cmp 202 Algorithms 2\Project\CMP202Project\CMP202Project\Timings\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4BFA7-03EB-41B7-B0C3-9AC5B6A68021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F944D97-CC73-42C7-95D9-B43273735D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6854,15 +6855,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A14:F65"/>
+  <dimension ref="A14:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -6977,7 +6981,7 @@
         <v>106.97999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>73.559999999999988</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -6993,28 +6997,28 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>8.9400000000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>70.56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59">
         <f>B56+B57+B58</f>
         <v>197.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -7031,8 +7035,12 @@
         <f t="shared" ref="F63:F64" si="0">B63+C63+D63+E63</f>
         <v>110.45578947368421</v>
       </c>
+      <c r="G63">
+        <f>F63+E63+D63+B63</f>
+        <v>220.0557894736842</v>
+      </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -7049,8 +7057,16 @@
         <f t="shared" si="0"/>
         <v>197.5</v>
       </c>
+      <c r="G64">
+        <f t="shared" ref="G64:G65" si="1">F64+E64+D64+B64</f>
+        <v>395</v>
+      </c>
+      <c r="H64">
+        <f>G64/2</f>
+        <v>197.5</v>
+      </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -7063,6 +7079,276 @@
       <c r="F65">
         <f>B65+C65+D65+E65</f>
         <v>91.999999999999986</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>183.99999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <f>B63+C63+E63+F63+B64+D64+E64+F64+B65+D65+F65</f>
+        <v>799.9115789473683</v>
+      </c>
+      <c r="G69">
+        <f>G63+C63+G65+H64</f>
+        <v>602.41157894736841</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>799.91157894736796</v>
+      </c>
+      <c r="G70">
+        <v>602.41157894736841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>799.9115789473683</v>
+      </c>
+      <c r="G71">
+        <v>602.41157894736841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>799.9115789473683</v>
+      </c>
+      <c r="G72">
+        <v>602.41157894736841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>799.9115789473683</v>
+      </c>
+      <c r="G73">
+        <v>602.41157894736841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <f>C69/1000000000</f>
+        <v>7.9991157894736826E-7</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f>(C77*(95^E77))/2</f>
+        <v>3.7995799999999993E-5</v>
+      </c>
+      <c r="H77">
+        <v>6.8269999999999997E-3</v>
+      </c>
+      <c r="J77" s="1">
+        <f>((H77-G77)/G77)</f>
+        <v>178.67775385700526</v>
+      </c>
+      <c r="N77">
+        <f>0.0000379958*1000000</f>
+        <v>37.995800000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <f t="shared" ref="C78:C81" si="2">C70/1000000000</f>
+        <v>7.9991157894736794E-7</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:G81" si="3">(C78*(95^E78))/2</f>
+        <v>3.6096009999999979E-3</v>
+      </c>
+      <c r="H78">
+        <v>1.1002E-2</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" ref="J78:J86" si="4">((H78-G78)/G78)</f>
+        <v>2.0479823116183771</v>
+      </c>
+      <c r="N78">
+        <f>0.003609601*1000</f>
+        <v>3.6096010000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>7.9991157894736826E-7</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.34291209499999992</v>
+      </c>
+      <c r="H79">
+        <v>0.37340699999999999</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="4"/>
+        <v>8.8929219600726181E-2</v>
+      </c>
+      <c r="N79">
+        <v>0.34291209499999992</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>7.9991157894736826E-7</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>32.576649024999995</v>
+      </c>
+      <c r="H80">
+        <v>27.983453999999998</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.14099654698907441</v>
+      </c>
+      <c r="N80">
+        <f>G80</f>
+        <v>32.576649024999995</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>7.9991157894736826E-7</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>3094.7816573749992</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="N81">
+        <f>G81/60</f>
+        <v>51.579694289583323</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <f>G69/1000000000</f>
+        <v>6.0241157894736846E-7</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f>(C83*(95^E83))/2</f>
+        <v>2.8614550000000002E-5</v>
+      </c>
+      <c r="H83">
+        <v>9.2860000000000009E-3</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="4"/>
+        <v>323.52021786119298</v>
+      </c>
+      <c r="N83">
+        <f>0.00002861455*1000000</f>
+        <v>28.614549999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <f t="shared" ref="C84:C87" si="5">G70/1000000000</f>
+        <v>6.0241157894736846E-7</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ref="G84:G87" si="6">(C84*(95^E84))/2</f>
+        <v>2.71838225E-3</v>
+      </c>
+      <c r="H84">
+        <v>1.2723999999999999E-2</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6807250893431194</v>
+      </c>
+      <c r="N84">
+        <f>0.00271838225*1000</f>
+        <v>2.7183822499999999</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>6.0241157894736846E-7</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>0.25824631375000001</v>
+      </c>
+      <c r="H85">
+        <v>0.28470099999999998</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10243974392451505</v>
+      </c>
+      <c r="N85">
+        <v>0.25824631375000001</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>6.0241157894736846E-7</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>24.533399806250003</v>
+      </c>
+      <c r="H86">
+        <v>25.697669999999999</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7456536922917313E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>6.0241157894736846E-7</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>2330.6729815937501</v>
+      </c>
+      <c r="N87">
+        <f>G87/60</f>
+        <v>38.844549693229169</v>
       </c>
     </row>
   </sheetData>

--- a/CMP202Project/Timings/final/Master 2.xlsx
+++ b/CMP202Project/Timings/final/Master 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Uni19-20\Cmp 202 Algorithms 2\Project\CMP202Project\CMP202Project\Timings\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F944D97-CC73-42C7-95D9-B43273735D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5728E5-7505-42A6-BB26-6723090482A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6855,10 +6855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A14:N87"/>
+  <dimension ref="A14:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="D66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83:H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7222,7 +7222,7 @@
         <v>32.576649024999995</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C81">
         <f t="shared" si="2"/>
         <v>7.9991157894736826E-7</v>
@@ -7234,16 +7234,26 @@
         <f t="shared" si="3"/>
         <v>3094.7816573749992</v>
       </c>
-      <c r="J81" s="1"/>
+      <c r="H81">
+        <v>3226.7719729999999</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="4"/>
+        <v>4.264931430960954E-2</v>
+      </c>
       <c r="N81">
         <f>G81/60</f>
         <v>51.579694289583323</v>
       </c>
+      <c r="O81">
+        <f>H81/60</f>
+        <v>53.779532883333331</v>
+      </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>G69/1000000000</f>
         <v>6.0241157894736846E-7</v>
@@ -7267,7 +7277,7 @@
         <v>28.614549999999998</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C84">
         <f t="shared" ref="C84:C87" si="5">G70/1000000000</f>
         <v>6.0241157894736846E-7</v>
@@ -7291,7 +7301,7 @@
         <v>2.7183822499999999</v>
       </c>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C85">
         <f t="shared" si="5"/>
         <v>6.0241157894736846E-7</v>
@@ -7314,7 +7324,7 @@
         <v>0.25824631375000001</v>
       </c>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C86">
         <f t="shared" si="5"/>
         <v>6.0241157894736846E-7</v>
@@ -7334,7 +7344,7 @@
         <v>4.7456536922917313E-2</v>
       </c>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C87">
         <f t="shared" si="5"/>
         <v>6.0241157894736846E-7</v>

--- a/CMP202Project/Timings/final/Master 2.xlsx
+++ b/CMP202Project/Timings/final/Master 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Uni19-20\Cmp 202 Algorithms 2\Project\CMP202Project\CMP202Project\Timings\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5728E5-7505-42A6-BB26-6723090482A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79964D39-E9C4-407C-822C-1BB76FC12838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Generation end character work only</t>
   </si>
@@ -91,6 +91,9 @@
   <si>
     <t>Generation</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -125,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6855,10 +6859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A14:O87"/>
+  <dimension ref="A14:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:H86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7127,6 +7131,11 @@
         <v>602.41157894736841</v>
       </c>
     </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>799.9115789473683</v>
+      </c>
+    </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C77">
         <f>C69/1000000000</f>
@@ -7153,21 +7162,21 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C78">
-        <f t="shared" ref="C78:C81" si="2">C70/1000000000</f>
+        <f t="shared" ref="C78:C82" si="2">C70/1000000000</f>
         <v>7.9991157894736794E-7</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G81" si="3">(C78*(95^E78))/2</f>
+        <f t="shared" ref="G78:G82" si="3">(C78*(95^E78))/2</f>
         <v>3.6096009999999979E-3</v>
       </c>
       <c r="H78">
         <v>1.1002E-2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ref="J78:J86" si="4">((H78-G78)/G78)</f>
+        <f t="shared" ref="J78:J87" si="4">((H78-G78)/G78)</f>
         <v>2.0479823116183771</v>
       </c>
       <c r="N78">
@@ -7222,7 +7231,7 @@
         <v>32.576649024999995</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C81">
         <f t="shared" si="2"/>
         <v>7.9991157894736826E-7</v>
@@ -7250,10 +7259,13 @@
         <v>53.779532883333331</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>G69/1000000000</f>
         <v>6.0241157894736846E-7</v>
@@ -7276,8 +7288,12 @@
         <f>0.00002861455*1000000</f>
         <v>28.614549999999998</v>
       </c>
+      <c r="R83" s="1">
+        <v>8.8929219600726181E-2</v>
+      </c>
+      <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C84">
         <f t="shared" ref="C84:C87" si="5">G70/1000000000</f>
         <v>6.0241157894736846E-7</v>
@@ -7300,8 +7316,12 @@
         <f>0.00271838225*1000</f>
         <v>2.7183822499999999</v>
       </c>
+      <c r="R84" s="1">
+        <v>-0.14099654698907441</v>
+      </c>
+      <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C85">
         <f t="shared" si="5"/>
         <v>6.0241157894736846E-7</v>
@@ -7323,8 +7343,12 @@
       <c r="N85">
         <v>0.25824631375000001</v>
       </c>
+      <c r="R85" s="1">
+        <v>4.264931430960954E-2</v>
+      </c>
+      <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C86">
         <f t="shared" si="5"/>
         <v>6.0241157894736846E-7</v>
@@ -7343,8 +7367,12 @@
         <f t="shared" si="4"/>
         <v>4.7456536922917313E-2</v>
       </c>
+      <c r="R86" s="1">
+        <v>0.10243974392451505</v>
+      </c>
+      <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C87">
         <f t="shared" si="5"/>
         <v>6.0241157894736846E-7</v>
@@ -7356,13 +7384,123 @@
         <f t="shared" si="6"/>
         <v>2330.6729815937501</v>
       </c>
+      <c r="H87">
+        <v>2461.094482</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5958730133416484E-2</v>
+      </c>
       <c r="N87">
         <f>G87/60</f>
         <v>38.844549693229169</v>
       </c>
+      <c r="R87" s="1">
+        <v>4.7456536922917313E-2</v>
+      </c>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R88" s="1">
+        <v>5.5958730133416484E-2</v>
+      </c>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="T90" s="1"/>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>6.8269999999999997E-3</v>
+      </c>
+      <c r="F97">
+        <v>9.2860000000000009E-3</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I98" s="2"/>
+      <c r="J98">
+        <f>E100*4+G77</f>
+        <v>6.7130126000000002E-3</v>
+      </c>
+      <c r="L98">
+        <f>E100*5+G77</f>
+        <v>8.3817667999999991E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <f>F100*4+G83</f>
+        <v>7.3429563500000015E-3</v>
+      </c>
+      <c r="L99">
+        <f>F100*5+G83</f>
+        <v>9.1715418000000021E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <f>E97/4-G77</f>
+        <v>1.6687542E-3</v>
+      </c>
+      <c r="F100">
+        <f>F97/5-G83</f>
+        <v>1.8285854500000003E-3</v>
+      </c>
+      <c r="H100">
+        <f>F100-E100</f>
+        <v>1.5983125000000034E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <f>E97/4</f>
+        <v>1.7067499999999999E-3</v>
+      </c>
+      <c r="F101">
+        <f>F97/4</f>
+        <v>2.3215000000000002E-3</v>
+      </c>
+      <c r="H101">
+        <f>F101-E101</f>
+        <v>6.1475000000000028E-4</v>
+      </c>
+      <c r="J101">
+        <f>J99-J98</f>
+        <v>6.2994375000000134E-4</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ref="K101:L101" si="7">L99-L98</f>
+        <v>7.8977500000000297E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="J104" s="1">
+        <f>((J99-J98)/J98)</f>
+        <v>9.3839202685244677E-2</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1">
+        <f t="shared" ref="K104:L104" si="8">((L99-L98)/L98)</f>
+        <v>9.422536069602927E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>